--- a/项目开发计划.xlsx
+++ b/项目开发计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohongwen/Desktop/2020工程实训/项目文档模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaohongwen/project/PBSGDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE5D213-514B-5F47-86F7-E77F5EE37220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3D85F-A33A-9442-836C-7EBA355B3A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="11880" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9200" yWindow="1120" windowWidth="11880" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="12" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -626,6 +626,14 @@
   </si>
   <si>
     <t>个人博客开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>良好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1167,16 +1175,91 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,81 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -15382,8 +15390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
@@ -15397,238 +15405,238 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:8" ht="20" customHeight="1">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="2:8" ht="20" customHeight="1">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="2:8" ht="20" customHeight="1">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="43"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="59">
+      <c r="C8" s="53"/>
+      <c r="D8" s="58">
         <v>43998</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="58">
         <v>44017</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:8" ht="48" customHeight="1">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="56" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="2:8" ht="20" customHeight="1">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="71"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="2:8" ht="20" customHeight="1">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="2:8" ht="20" customHeight="1">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="2:8" ht="20" customHeight="1">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" ht="20" customHeight="1">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="20" customHeight="1">
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="2:8" ht="20" customHeight="1">
       <c r="B20" s="33" t="s">
@@ -15759,15 +15767,15 @@
       <c r="H25" s="19"/>
     </row>
     <row r="26" spans="2:8" ht="20" customHeight="1">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="2:8" ht="20" customHeight="1">
       <c r="B27" s="34" t="s">
@@ -15782,10 +15790,10 @@
       <c r="E27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="33" t="s">
         <v>81</v>
       </c>
@@ -15797,9 +15805,15 @@
       <c r="C28" s="36">
         <v>43998</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="19"/>
+      <c r="D28" s="36">
+        <v>43998</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
     </row>
@@ -15810,9 +15824,15 @@
       <c r="C29" s="36">
         <v>43999</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="19"/>
+      <c r="D29" s="36">
+        <v>44000</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
     </row>
@@ -15973,15 +15993,15 @@
       <c r="H41" s="19"/>
     </row>
     <row r="42" spans="2:8" ht="20" customHeight="1">
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="2:8" ht="20" customHeight="1">
       <c r="B43" s="34" t="s">
@@ -16025,187 +16045,170 @@
       <c r="H45" s="19"/>
     </row>
     <row r="46" spans="2:8" ht="20" customHeight="1">
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="65"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="2:8" ht="20" customHeight="1">
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="78" t="s">
+      <c r="C47" s="49"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="79"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="2:8" ht="25.25" customHeight="1">
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61" t="s">
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="2:8" ht="25.25" customHeight="1">
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="61" t="s">
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="2:8" ht="25.25" customHeight="1">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="61" t="s">
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="2:8" ht="20" customHeight="1">
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="65"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="2:8" ht="20" customHeight="1">
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="47" t="s">
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="49"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="2:8" ht="20" customHeight="1">
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="71"/>
     </row>
     <row r="54" spans="2:8" ht="17" customHeight="1">
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="2:8" ht="20" customHeight="1">
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="2:8" ht="20" customHeight="1">
       <c r="B56" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="46"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="71"/>
     </row>
     <row r="57" spans="2:8" ht="20" customHeight="1">
       <c r="B57" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="71"/>
     </row>
     <row r="58" spans="2:8" ht="17" customHeight="1">
       <c r="B58" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="40"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
@@ -16222,16 +16225,33 @@
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B42:H42"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
